--- a/analysis/csv files/graphs_final/graph-3-hh-ph.xlsx
+++ b/analysis/csv files/graphs_final/graph-3-hh-ph.xlsx
@@ -10,14 +10,14 @@
     <sheet name="CI-byHHRACE3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="byHHSEX" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="CI-byHHSEX" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="byHHCITSHP3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="CI-byHHCITSHP3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="byHOUSEHOLDCITSHP" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CI-byHOUSEHOLDCITSHP" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="byHHGRAD4" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="CI-byHHGRAD4" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="byHHRACE3+HHSEX" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="CI-byHHRACE3+HHSEX" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="byHHRACE3+HHCITSHP3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="CI-byHHRACE3+HHCITSHP3" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="byHHRACE3+HOUSEHOLDCITSHP" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="CI-byHHRACE3+HOUSEHOLDCITSHP" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="byHHRACE3+HHGRAD4" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="CI-byHHRACE3+HHGRAD4" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
@@ -75,13 +75,13 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Not US citizen</t>
+    <t xml:space="preserve">At least 1 citizen, but not householder</t>
   </si>
   <si>
-    <t xml:space="preserve">US citizen, native</t>
+    <t xml:space="preserve">No citizens in household</t>
   </si>
   <si>
-    <t xml:space="preserve">US citizen, naturalized</t>
+    <t xml:space="preserve">Householder is citizen</t>
   </si>
   <si>
     <t xml:space="preserve">4_Bachelor's degree or higher</t>
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0119005113872074</v>
+        <v>0.0119005113541893</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -467,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0158433525701614</v>
+        <v>0.0158433528225717</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0254963531888004</v>
+        <v>0.0254963529599755</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0274986414500693</v>
+        <v>0.0274986410959012</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.034344174878181</v>
+        <v>0.0343441757891373</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -523,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0611315864604466</v>
+        <v>0.0611315871882571</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -580,19 +580,19 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0066556617222025</v>
+        <v>0.00665566168902908</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00560259255191791</v>
+        <v>0.00560259252274085</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00770873089248708</v>
+        <v>0.0077087308553173</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00105306917028458</v>
+        <v>0.00105306916628822</v>
       </c>
     </row>
     <row r="3">
@@ -606,19 +606,19 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0101829724886533</v>
+        <v>0.0101829719430611</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00043916921778449</v>
+        <v>0.000439169134163083</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0199267757595222</v>
+        <v>0.0199267747519591</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00974380327086885</v>
+        <v>0.00974380280889799</v>
       </c>
     </row>
     <row r="4">
@@ -632,19 +632,19 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0119360773552148</v>
+        <v>0.0119360774380837</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00690865208941755</v>
+        <v>0.00690865213878518</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0169635026210121</v>
+        <v>0.0169635027373821</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00502742526579728</v>
+        <v>0.00502742529929847</v>
       </c>
     </row>
     <row r="5">
@@ -658,19 +658,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0150912981573579</v>
+        <v>0.0150912981942125</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0110662237543054</v>
+        <v>0.0110662237478757</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0191163725604103</v>
+        <v>0.0191163726405493</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00402507440305245</v>
+        <v>0.00402507444633679</v>
       </c>
     </row>
     <row r="6">
@@ -684,19 +684,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0178443416967273</v>
+        <v>0.0178443416746452</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0160469489631301</v>
+        <v>0.0160469489423408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0196417344303245</v>
+        <v>0.0196417344069496</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0017973927335972</v>
+        <v>0.00179739273230437</v>
       </c>
     </row>
     <row r="7">
@@ -710,19 +710,19 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.021728529036518</v>
+        <v>0.0217285296090829</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0145743452960358</v>
+        <v>0.014574345545375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0288827127770002</v>
+        <v>0.0288827136727908</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00715418374048223</v>
+        <v>0.0071541840637079</v>
       </c>
     </row>
     <row r="8">
@@ -736,19 +736,19 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0225256000436342</v>
+        <v>0.0225256011212016</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00636873521310087</v>
+        <v>0.00636873555539682</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0386824648741675</v>
+        <v>0.0386824666870064</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0161568648305333</v>
+        <v>0.0161568655658048</v>
       </c>
     </row>
     <row r="9">
@@ -762,19 +762,19 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0361109670534737</v>
+        <v>0.0361109665718475</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0297462155096947</v>
+        <v>0.0297462151007539</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0424757185972527</v>
+        <v>0.0424757180429412</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00636475154377902</v>
+        <v>0.00636475147109362</v>
       </c>
     </row>
     <row r="10">
@@ -788,19 +788,19 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0395190935205829</v>
+        <v>0.0395190940980026</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0319835179499756</v>
+        <v>0.0319835183960151</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0470546690911903</v>
+        <v>0.0470546697999902</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00753557557060734</v>
+        <v>0.00753557570198751</v>
       </c>
     </row>
     <row r="11">
@@ -814,19 +814,19 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0427576883452288</v>
+        <v>0.0427576883013861</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00209800005089977</v>
+        <v>0.00209800008739077</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0834173766395578</v>
+        <v>0.0834173765153813</v>
       </c>
       <c r="H11" t="n">
-        <v>0.040659688294329</v>
+        <v>0.0406596882139953</v>
       </c>
     </row>
     <row r="12">
@@ -840,19 +840,19 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0471719842831431</v>
+        <v>0.0471719849288408</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0215484038645227</v>
+        <v>0.0215484043158402</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0727955647017635</v>
+        <v>0.0727955655418413</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0256235804186204</v>
+        <v>0.0256235806130005</v>
       </c>
     </row>
     <row r="13">
@@ -866,19 +866,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0761340954983615</v>
+        <v>0.0761340963497683</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0681690646963728</v>
+        <v>0.0681690654433008</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0840991263003501</v>
+        <v>0.0840991272562358</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00796503080198863</v>
+        <v>0.00796503090646752</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00314422673951065</v>
+        <v>0.00654638471430799</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
@@ -931,16 +931,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00580128413054897</v>
+        <v>0.00896292636623798</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00812542093928795</v>
+        <v>0.0106837390156471</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -965,16 +965,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00824294047905703</v>
+        <v>0.0118634022886977</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -991,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0111185470679976</v>
+        <v>0.0122554393367943</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -999,16 +999,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0121051869884799</v>
+        <v>0.0131764823820944</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1025,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.012492313541391</v>
+        <v>0.0136577933805007</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
@@ -1033,16 +1033,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0135114484492381</v>
+        <v>0.0148118821961018</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
@@ -1050,16 +1050,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0156241221604504</v>
+        <v>0.0159382376590514</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0225512040107402</v>
+        <v>0.0170837381304325</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.022561847379812</v>
+        <v>0.0175760859623348</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0253777345148791</v>
+        <v>0.0204775436482435</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1118,16 +1118,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0264872877524433</v>
+        <v>0.0291540516857133</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0322677684975158</v>
+        <v>0.0301694739771905</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1152,16 +1152,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0382052719207081</v>
+        <v>0.0304030586209006</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0400232606348698</v>
+        <v>0.0361974594359712</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1189,13 +1189,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0652694279756957</v>
+        <v>0.0630406375362828</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.134500435501429</v>
+        <v>0.186409894249011</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1269,102 +1269,102 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00314422673951065</v>
+        <v>0.00654638471430799</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00308240122827891</v>
+        <v>0.000526451144619354</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00937085470730021</v>
+        <v>0.0125663182839966</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00622662796778956</v>
+        <v>0.00601993356968864</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00580128413054897</v>
+        <v>0.00896292636623798</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00569729589325333</v>
+        <v>0.000801957553790882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0172998641543513</v>
+        <v>0.0171238951786851</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0114985800238023</v>
+        <v>0.0081609688124471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00812542093928795</v>
+        <v>0.0106837390156471</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.000211713568552187</v>
+        <v>0.00601079543313686</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0164625554471281</v>
+        <v>0.0153566825981573</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00833713450784013</v>
+        <v>0.0046729435825102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00824294047905703</v>
+        <v>0.0118634022886977</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000411058194475176</v>
+        <v>0.0108169089236754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0160748227636389</v>
+        <v>0.01290989565372</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00783188228458185</v>
+        <v>0.00104649336502231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1373,50 +1373,50 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0111185470679976</v>
+        <v>0.0122554393367943</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0100557117777148</v>
+        <v>-0.0121582777458147</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0121813823582804</v>
+        <v>0.0366691564194033</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00106283529028279</v>
+        <v>0.024413717082609</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0121051869884799</v>
+        <v>0.0131764823820944</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00533178506798333</v>
+        <v>0.00581614591060408</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0188785889089765</v>
+        <v>0.0205368188535847</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00677340192049659</v>
+        <v>0.00736033647149033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1425,97 +1425,97 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.012492313541391</v>
+        <v>0.0136577933805007</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00853915940284187</v>
+        <v>0.00764648118518832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0164454676799401</v>
+        <v>0.0196691055758131</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00395315413854909</v>
+        <v>0.00601131219531239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0135114484492381</v>
+        <v>0.0148118821961018</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00876676885436398</v>
+        <v>0.00435231677909782</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0182561280441121</v>
+        <v>0.0252714476131059</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00474467959487408</v>
+        <v>0.010459565417004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0156241221604504</v>
+        <v>0.0159382376590514</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0040955093214963</v>
+        <v>0.00868316532254692</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0353437536423971</v>
+        <v>0.0231933099955558</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0197196314819467</v>
+        <v>0.00725507233650444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0225512040107402</v>
+        <v>0.0170837381304325</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0175155312202546</v>
+        <v>-0.00912437683075171</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0275868768012258</v>
+        <v>0.0432918530916167</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0050356727904856</v>
+        <v>0.0262081149611842</v>
       </c>
     </row>
     <row r="12">
@@ -1529,19 +1529,19 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.022561847379812</v>
+        <v>0.0175760859623348</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0157494320533999</v>
+        <v>0.0123692714471743</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0293742627062242</v>
+        <v>0.0227829004774952</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00681241532641214</v>
+        <v>0.00520681451516047</v>
       </c>
     </row>
     <row r="13">
@@ -1549,56 +1549,56 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0253777345148791</v>
+        <v>0.0204775436482435</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00784058307683306</v>
+        <v>0.00231111842816541</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0429148859529251</v>
+        <v>0.0386439688683216</v>
       </c>
       <c r="H13" t="n">
-        <v>0.017537151438046</v>
+        <v>0.0181664252200781</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0264872877524433</v>
+        <v>0.0291540516857133</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0193417171076837</v>
+        <v>0.00149761089520375</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0336328583972029</v>
+        <v>0.0568104924762228</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0071455706447596</v>
+        <v>0.0276564407905095</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1607,50 +1607,50 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0322677684975158</v>
+        <v>0.0301694739771905</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.025855545820143</v>
+        <v>-0.0148854184367424</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0386799911748886</v>
+        <v>0.0752243663911235</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00641222267737277</v>
+        <v>0.045054892413933</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0382052719207081</v>
+        <v>0.0304030586209006</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0208773446047748</v>
+        <v>0.0254840769295078</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0555331992366414</v>
+        <v>0.0353220403122934</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0173279273159333</v>
+        <v>0.00491898169139281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1659,19 +1659,19 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0400232606348698</v>
+        <v>0.0361974594359712</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0236486720314341</v>
+        <v>0.0199155355202157</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0563978492383054</v>
+        <v>0.0524793833517267</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0163745886034356</v>
+        <v>0.0162819239157555</v>
       </c>
     </row>
     <row r="18">
@@ -1679,25 +1679,25 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0652694279756957</v>
+        <v>0.0630406375362828</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0590470038802781</v>
+        <v>0.0571857250773227</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0714918520711133</v>
+        <v>0.068895549995243</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00622242409541761</v>
+        <v>0.00585491245896015</v>
       </c>
     </row>
     <row r="19">
@@ -1711,19 +1711,19 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.134500435501429</v>
+        <v>0.186409894249011</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0102003767132943</v>
+        <v>0.00630495745756735</v>
       </c>
       <c r="G19" t="n">
-        <v>0.258800494289565</v>
+        <v>0.366514831040454</v>
       </c>
       <c r="H19" t="n">
-        <v>0.124300058788135</v>
+        <v>0.180104936791443</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000754305444472654</v>
+        <v>0.000754305388245305</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -1785,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00254627206862748</v>
+        <v>0.0025462721951411</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -1802,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0034298889673472</v>
+        <v>0.003429888952902</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0045980889746111</v>
+        <v>0.00459808934295257</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -1836,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00558006412248963</v>
+        <v>0.00558006426902104</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -1853,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00887164292522103</v>
+        <v>0.00887164318529109</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
@@ -1870,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0104675441431585</v>
+        <v>0.0104675441024568</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0105493907931902</v>
+        <v>0.0105493908396723</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.013124310646243</v>
+        <v>0.0131243107341458</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1921,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0187826176818789</v>
+        <v>0.0187826174922339</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1938,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0204893418335736</v>
+        <v>0.0204893443425969</v>
       </c>
       <c r="E12" t="n">
         <v>14</v>
@@ -1955,7 +1955,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217075863959251</v>
+        <v>0.0217075864272638</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220880300356055</v>
+        <v>0.0220880303129731</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -1989,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0371269043775015</v>
+        <v>0.0371269038583388</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -2006,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0375841511113531</v>
+        <v>0.0375841504054845</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -2023,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0423483107663307</v>
+        <v>0.042348311424903</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -2040,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0423714337241534</v>
+        <v>0.0423714327943436</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -2057,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0471013092001438</v>
+        <v>0.0471013107822504</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -2074,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0576393879877963</v>
+        <v>0.0576393884887252</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -2091,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.065492480168979</v>
+        <v>0.0654924807579395</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -2108,7 +2108,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0743316460435098</v>
+        <v>0.0743316446299875</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -2125,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0927721432603206</v>
+        <v>0.092772143080702</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -2142,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.145953611986188</v>
+        <v>0.145953614462045</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -2214,19 +2214,19 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000754305444472654</v>
+        <v>0.000754305388245305</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.000726849876578914</v>
+        <v>-0.000726849822481369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00223546076552422</v>
+        <v>0.00223546059897198</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00148115532105157</v>
+        <v>0.00148115521072667</v>
       </c>
     </row>
     <row r="3">
@@ -2240,19 +2240,19 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00254627206862748</v>
+        <v>0.0025462721951411</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00250337222856335</v>
+        <v>-0.00250337235124964</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00759591636581831</v>
+        <v>0.00759591674153185</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00504964429719083</v>
+        <v>0.00504964454639075</v>
       </c>
     </row>
     <row r="4">
@@ -2266,19 +2266,19 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0034298889673472</v>
+        <v>0.003429888952902</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00252115041774326</v>
+        <v>0.00252115040489875</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00433862751695115</v>
+        <v>0.00433862750090525</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000908738549603945</v>
+        <v>0.00090873854800325</v>
       </c>
     </row>
     <row r="5">
@@ -2292,19 +2292,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0045980889746111</v>
+        <v>0.00459808934295257</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0045775929790383</v>
+        <v>-0.00457759333886589</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0137737709282605</v>
+        <v>0.013773772024771</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0091756819536494</v>
+        <v>0.00917568268181846</v>
       </c>
     </row>
     <row r="6">
@@ -2318,19 +2318,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00558006412248963</v>
+        <v>0.00558006426902104</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00240537031679562</v>
+        <v>0.00240537036226342</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00875475792818364</v>
+        <v>0.00875475817577866</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00317469380569401</v>
+        <v>0.00317469390675762</v>
       </c>
     </row>
     <row r="7">
@@ -2344,19 +2344,19 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00887164292522103</v>
+        <v>0.00887164318529109</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00456423726340985</v>
+        <v>0.00456423742476282</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0131790485870322</v>
+        <v>0.0131790489458194</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00430740566181118</v>
+        <v>0.00430740576052827</v>
       </c>
     </row>
     <row r="8">
@@ -2370,19 +2370,19 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0104675441431585</v>
+        <v>0.0104675441024568</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00777616667602507</v>
+        <v>0.00777616663384333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.013158921610292</v>
+        <v>0.0131589215710703</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00269137746713348</v>
+        <v>0.00269137746861347</v>
       </c>
     </row>
     <row r="9">
@@ -2396,19 +2396,19 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0105493907931902</v>
+        <v>0.0105493908396723</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00458780652660854</v>
+        <v>0.00458780648452731</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0165109750597718</v>
+        <v>0.0165109751948172</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00596158426658164</v>
+        <v>0.00596158435514497</v>
       </c>
     </row>
     <row r="10">
@@ -2422,19 +2422,19 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.013124310646243</v>
+        <v>0.0131243107341458</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0115263124906863</v>
+        <v>0.0115263125618745</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0147223088017997</v>
+        <v>0.0147223089064172</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0015979981555567</v>
+        <v>0.00159799817227133</v>
       </c>
     </row>
     <row r="11">
@@ -2448,19 +2448,19 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0187826176818789</v>
+        <v>0.0187826174922339</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00834370853410235</v>
+        <v>0.00834370836145527</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0292215268296555</v>
+        <v>0.0292215266230125</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0104389091477766</v>
+        <v>0.0104389091307786</v>
       </c>
     </row>
     <row r="12">
@@ -2474,19 +2474,19 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0204893418335736</v>
+        <v>0.0204893443425969</v>
       </c>
       <c r="E12" t="n">
         <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00803208209423908</v>
+        <v>-0.00803208333536487</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0490107657613863</v>
+        <v>0.0490107720205587</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0285214239278127</v>
+        <v>0.0285214276779618</v>
       </c>
     </row>
     <row r="13">
@@ -2500,19 +2500,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217075863959251</v>
+        <v>0.0217075864272638</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0165713180616663</v>
+        <v>0.0165713180334279</v>
       </c>
       <c r="G13" t="n">
-        <v>0.026843854730184</v>
+        <v>0.0268438548210997</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00513626833425887</v>
+        <v>0.0051362683938359</v>
       </c>
     </row>
     <row r="14">
@@ -2526,19 +2526,19 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220880300356055</v>
+        <v>0.0220880303129731</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0129002570813874</v>
+        <v>0.0129002570814157</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0312758029898236</v>
+        <v>0.0312758035445305</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00918777295421811</v>
+        <v>0.00918777323155736</v>
       </c>
     </row>
     <row r="15">
@@ -2552,19 +2552,19 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0371269043775015</v>
+        <v>0.0371269038583388</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0314658129919463</v>
+        <v>0.0314658125659123</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0427879957630566</v>
+        <v>0.0427879951507653</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00566109138555516</v>
+        <v>0.0056610912924265</v>
       </c>
     </row>
     <row r="16">
@@ -2578,19 +2578,19 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0375841511113531</v>
+        <v>0.0375841504054845</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00300042974020871</v>
+        <v>0.00300042931007072</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0721678724824974</v>
+        <v>0.0721678715008983</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0345837213711444</v>
+        <v>0.0345837210954138</v>
       </c>
     </row>
     <row r="17">
@@ -2604,19 +2604,19 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0423483107663307</v>
+        <v>0.042348311424903</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0191091237307954</v>
+        <v>0.0191091242229672</v>
       </c>
       <c r="G17" t="n">
-        <v>0.065587497801866</v>
+        <v>0.0655874986268388</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0232391870355353</v>
+        <v>0.0232391872019358</v>
       </c>
     </row>
     <row r="18">
@@ -2630,19 +2630,19 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0423714337241534</v>
+        <v>0.0423714327943436</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0334363305128814</v>
+        <v>0.0334363297862033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0513065369354254</v>
+        <v>0.0513065358024838</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00893510321127198</v>
+        <v>0.00893510300814027</v>
       </c>
     </row>
     <row r="19">
@@ -2656,19 +2656,19 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0471013092001438</v>
+        <v>0.0471013107822504</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00905642357241602</v>
+        <v>0.00905642391844527</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0851461948278716</v>
+        <v>0.0851461976460556</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0380448856277278</v>
+        <v>0.0380448868638052</v>
       </c>
     </row>
     <row r="20">
@@ -2682,19 +2682,19 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0576393879877963</v>
+        <v>0.0576393884887252</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>0.041672124338368</v>
+        <v>0.0416721245961834</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0736066516372245</v>
+        <v>0.0736066523812671</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0159672636494282</v>
+        <v>0.0159672638925419</v>
       </c>
     </row>
     <row r="21">
@@ -2708,19 +2708,19 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.065492480168979</v>
+        <v>0.0654924807579395</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0572631872580333</v>
+        <v>0.057263187733616</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0737217730799248</v>
+        <v>0.0737217737822631</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00822929291094578</v>
+        <v>0.00822929302432353</v>
       </c>
     </row>
     <row r="22">
@@ -2734,19 +2734,19 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0743316460435098</v>
+        <v>0.0743316446299875</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0642317393234054</v>
+        <v>-0.0642317382625144</v>
       </c>
       <c r="G22" t="n">
-        <v>0.212895031410425</v>
+        <v>0.212895027522489</v>
       </c>
       <c r="H22" t="n">
-        <v>0.138563385366915</v>
+        <v>0.138563382892502</v>
       </c>
     </row>
     <row r="23">
@@ -2760,19 +2760,19 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0927721432603206</v>
+        <v>0.092772143080702</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0550361242289726</v>
+        <v>0.0550361239624801</v>
       </c>
       <c r="G23" t="n">
-        <v>0.130508162291669</v>
+        <v>0.130508162198924</v>
       </c>
       <c r="H23" t="n">
-        <v>0.037736019031348</v>
+        <v>0.0377360191182218</v>
       </c>
     </row>
     <row r="24">
@@ -2786,19 +2786,19 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.145953611986188</v>
+        <v>0.145953614462045</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123021617237278</v>
+        <v>0.123021619392239</v>
       </c>
       <c r="G24" t="n">
-        <v>0.168885606735099</v>
+        <v>0.16888560953185</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0229319947489108</v>
+        <v>0.0229319950698058</v>
       </c>
     </row>
     <row r="25">
@@ -2864,19 +2864,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0119005113872074</v>
+        <v>0.0119005113541893</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0108885150499241</v>
+        <v>0.0108885150189846</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0129125077244907</v>
+        <v>0.0129125076893941</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0010119963372833</v>
+        <v>0.00101199633520477</v>
       </c>
     </row>
     <row r="3">
@@ -2887,19 +2887,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0158433525701614</v>
+        <v>0.0158433528225717</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.011688630179561</v>
+        <v>0.0116886303313403</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0199980749607618</v>
+        <v>0.019998075313803</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00415472239060041</v>
+        <v>0.00415472249123134</v>
       </c>
     </row>
     <row r="4">
@@ -2910,19 +2910,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0254963531888004</v>
+        <v>0.0254963529599755</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0217400630686851</v>
+        <v>0.0217400628603194</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0292526433089157</v>
+        <v>0.0292526430596317</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00375629012011533</v>
+        <v>0.00375629009965613</v>
       </c>
     </row>
     <row r="5">
@@ -2933,19 +2933,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0274986414500693</v>
+        <v>0.0274986410959012</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00528559911001942</v>
+        <v>0.00528559892936243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0497116837901193</v>
+        <v>0.0497116832624399</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0222130423400499</v>
+        <v>0.0222130421665387</v>
       </c>
     </row>
     <row r="6">
@@ -2956,19 +2956,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.034344174878181</v>
+        <v>0.0343441757891373</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0194142051066214</v>
+        <v>0.0194142057087344</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0492741446497407</v>
+        <v>0.0492741458695401</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0149299697715596</v>
+        <v>0.0149299700804029</v>
       </c>
     </row>
     <row r="7">
@@ -2979,19 +2979,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0611315864604466</v>
+        <v>0.0611315871882571</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0555010610768485</v>
+        <v>0.0555010617240355</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0667621118440448</v>
+        <v>0.0667621126524787</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00563052538359816</v>
+        <v>0.00563052546422162</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0107412889427687</v>
+        <v>0.0107412889653734</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -3044,7 +3044,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0288911762388575</v>
+        <v>0.028891176290829</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -3095,19 +3095,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0107412889427687</v>
+        <v>0.0107412889653734</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00950505415678982</v>
+        <v>0.00950505417373314</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0119775237287475</v>
+        <v>0.0119775237570136</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00123623478597885</v>
+        <v>0.00123623479164025</v>
       </c>
     </row>
     <row r="3">
@@ -3118,19 +3118,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0288911762388575</v>
+        <v>0.028891176290829</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0268756701588916</v>
+        <v>0.0268756702039626</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0309066823188234</v>
+        <v>0.0309066823776954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0020155060799659</v>
+        <v>0.00201550608686644</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0144717053334885</v>
+        <v>0.0135810076512409</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -3183,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0193677683228599</v>
+        <v>0.015835713942227</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -3197,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0251685225615712</v>
+        <v>0.0198896876617288</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3248,19 +3248,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0144717053334885</v>
+        <v>0.0135810076512409</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0108937827945212</v>
+        <v>0.00886704628938507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0180496278724558</v>
+        <v>0.0182949690130967</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00357792253896728</v>
+        <v>0.0047139613618558</v>
       </c>
     </row>
     <row r="3">
@@ -3271,19 +3271,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0193677683228599</v>
+        <v>0.015835713942227</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.018086339800608</v>
+        <v>0.0103642927647475</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0206491968451117</v>
+        <v>0.0213071351197065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00128142852225186</v>
+        <v>0.00547142117747947</v>
       </c>
     </row>
     <row r="4">
@@ -3294,19 +3294,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0251685225615712</v>
+        <v>0.0198896876617288</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0210155076539363</v>
+        <v>0.0186650969853334</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0293215374692062</v>
+        <v>0.0211142783381242</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00415301490763497</v>
+        <v>0.0012245906763954</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00428870615793737</v>
+        <v>0.00428870619191817</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0174297532528447</v>
+        <v>0.0174297531836017</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -3373,7 +3373,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0227310317019943</v>
+        <v>0.0227310318067065</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -3387,7 +3387,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0576079648187303</v>
+        <v>0.057607964715824</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -3438,19 +3438,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00428870615793737</v>
+        <v>0.00428870619191817</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00337633148643259</v>
+        <v>0.0033763315114819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00520108082944215</v>
+        <v>0.00520108087235444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000912374671504779</v>
+        <v>0.000912374680436268</v>
       </c>
     </row>
     <row r="3">
@@ -3461,19 +3461,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0174297532528447</v>
+        <v>0.0174297531836017</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0141848633199592</v>
+        <v>0.014184863243979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0206746431857302</v>
+        <v>0.0206746431232244</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00324488993288551</v>
+        <v>0.00324488993962268</v>
       </c>
     </row>
     <row r="4">
@@ -3484,19 +3484,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0227310317019943</v>
+        <v>0.0227310318067065</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0208279346377345</v>
+        <v>0.0208279347258429</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0246341287662541</v>
+        <v>0.0246341288875702</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00190309706425976</v>
+        <v>0.00190309708086368</v>
       </c>
     </row>
     <row r="5">
@@ -3507,19 +3507,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0576079648187303</v>
+        <v>0.057607964715824</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0515457214246595</v>
+        <v>0.0515457213427798</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0636702082128012</v>
+        <v>0.0636702080888682</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00606224339407087</v>
+        <v>0.00606224337304417</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3564,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0066556617222025</v>
+        <v>0.00665566168902908</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
@@ -3581,7 +3581,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0101829724886533</v>
+        <v>0.0101829719430611</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -3598,7 +3598,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0119360773552148</v>
+        <v>0.0119360774380837</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -3615,7 +3615,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0150912981573579</v>
+        <v>0.0150912981942125</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -3632,7 +3632,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0178443416967273</v>
+        <v>0.0178443416746452</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -3649,7 +3649,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.021728529036518</v>
+        <v>0.0217285296090829</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -3666,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0225256000436342</v>
+        <v>0.0225256011212016</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -3683,7 +3683,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0361109670534737</v>
+        <v>0.0361109665718475</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -3700,7 +3700,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0395190935205829</v>
+        <v>0.0395190940980026</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -3717,7 +3717,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0427576883452288</v>
+        <v>0.0427576883013861</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -3734,7 +3734,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0471719842831431</v>
+        <v>0.0471719849288408</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -3751,7 +3751,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0761340954983615</v>
+        <v>0.0761340963497683</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>

--- a/analysis/csv files/graphs_final/graph-3-hh-ph.xlsx
+++ b/analysis/csv files/graphs_final/graph-3-hh-ph.xlsx
@@ -6,20 +6,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="byHHRACE3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CI-byHHRACE3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="byHOUSEHOLDRACE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CI-byHOUSEHOLDRACE" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="byHHSEX" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="CI-byHHSEX" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="byHOUSEHOLDCITSHP" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="CI-byHOUSEHOLDCITSHP" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="byHHGRAD4" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="CI-byHHGRAD4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="byHHRACE3+HHSEX" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="CI-byHHRACE3+HHSEX" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="byHHRACE3+HOUSEHOLDCITSHP" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="CI-byHHRACE3+HOUSEHOLDCITSHP" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="byHHRACE3+HHGRAD4" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="CI-byHHRACE3+HHGRAD4" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="byHOUSEHOLDRACE+HHSEX" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="CI-byHOUSEHOLDRACE+HHSEX" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="byHOUSEHOLDRACE+HOUSEHOLDCITSHP" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="CI-byHOUSEHOLDRACE+HOUSEHOLDCI" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="byHOUSEHOLDRACE+HHGRAD4" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="CI-byHOUSEHOLDRACE+HHGRAD4" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0119005113541893</v>
+        <v>0.0118729177510304</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -467,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0158433528225717</v>
+        <v>0.0175983175695391</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0274986410959012</v>
+        <v>0.0369647973792173</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0343441757891373</v>
+        <v>0.0427822140966773</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -523,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0611315871882571</v>
+        <v>0.0644985069644032</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -580,24 +580,24 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00665566168902908</v>
+        <v>0.00668176591108138</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00560259252274085</v>
+        <v>0.00561345748638768</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0077087308553173</v>
+        <v>0.00775007433577508</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00105306916628822</v>
+        <v>0.0010683084246937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -606,24 +606,24 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0101829719430611</v>
+        <v>0.0130000330628856</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000439169134163083</v>
+        <v>0.00752725931413081</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0199267747519591</v>
+        <v>0.0184728068116404</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00974380280889799</v>
+        <v>0.0054727737487548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -632,19 +632,19 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0119360774380837</v>
+        <v>0.0143029875343744</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00690865213878518</v>
+        <v>0.000524957287056172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0169635027373821</v>
+        <v>0.0280810177816925</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00502742529929847</v>
+        <v>0.0137780302473182</v>
       </c>
     </row>
     <row r="5">
@@ -684,19 +684,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0178443416746452</v>
+        <v>0.0177937499771373</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0160469489423408</v>
+        <v>0.0159511136186323</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0196417344069496</v>
+        <v>0.0196363863356423</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00179739273230437</v>
+        <v>0.00184263635850498</v>
       </c>
     </row>
     <row r="7">
@@ -710,19 +710,19 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217285296090829</v>
+        <v>0.02522146107126</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.014574345545375</v>
+        <v>0.0167133107864899</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0288827136727908</v>
+        <v>0.0337296113560302</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0071541840637079</v>
+        <v>0.00850815028477012</v>
       </c>
     </row>
     <row r="8">
@@ -736,19 +736,19 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0225256011212016</v>
+        <v>0.0296949046255971</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00636873555539682</v>
+        <v>0.00569184953810574</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0386824666870064</v>
+        <v>0.0536979597130884</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0161568655658048</v>
+        <v>0.0240030550874913</v>
       </c>
     </row>
     <row r="9">
@@ -788,24 +788,24 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0395190940980026</v>
+        <v>0.0430878002582942</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0319835183960151</v>
+        <v>0.0347929383326801</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0470546697999902</v>
+        <v>0.0513826621839082</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00753557570198751</v>
+        <v>0.00829486192561402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -814,24 +814,24 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0427576883013861</v>
+        <v>0.0558724406787483</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00209800008739077</v>
+        <v>0.0239885068842185</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0834173765153813</v>
+        <v>0.0877563744732782</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0406596882139953</v>
+        <v>0.0318839337945298</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -840,19 +840,19 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0471719849288408</v>
+        <v>0.0568994142899954</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0215484043158402</v>
+        <v>0.000604827563890506</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0727955655418413</v>
+        <v>0.1131940010161</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0256235806130005</v>
+        <v>0.0562945867261049</v>
       </c>
     </row>
     <row r="13">
@@ -866,19 +866,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0761340963497683</v>
+        <v>0.0784142747741524</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0681690654433008</v>
+        <v>0.0701403320823786</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0840991272562358</v>
+        <v>0.0866882174659262</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00796503090646752</v>
+        <v>0.00827394269177381</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00654638471430799</v>
+        <v>0.00774112744034211</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
@@ -940,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00896292636623798</v>
+        <v>0.0104550767881144</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0106837390156471</v>
+        <v>0.0108233055341885</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -974,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0118634022886977</v>
+        <v>0.0118363051524901</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -991,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0122554393367943</v>
+        <v>0.0131764823820944</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -1002,13 +1002,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0131764823820944</v>
+        <v>0.0136577933805007</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -1016,16 +1016,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0136577933805007</v>
+        <v>0.0138583849292627</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
@@ -1042,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0148118821961018</v>
+        <v>0.015049919478501</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0159382376590514</v>
+        <v>0.0155263988895586</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0170837381304325</v>
+        <v>0.0198370218164035</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0175760859623348</v>
+        <v>0.0212497832389912</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1110,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0204775436482435</v>
+        <v>0.0301694739771905</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1118,16 +1118,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0291540516857133</v>
+        <v>0.0304030586209006</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -1135,16 +1135,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0301694739771905</v>
+        <v>0.0326085300365754</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0304030586209006</v>
+        <v>0.0476154554999933</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0361974594359712</v>
+        <v>0.0664540863146276</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0630406375362828</v>
+        <v>0.202912369459852</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1211,9 +1211,7 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.186409894249011</v>
-      </c>
+      <c r="D19"/>
       <c r="E19" t="n">
         <v>1</v>
       </c>
@@ -1269,19 +1267,19 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00654638471430799</v>
+        <v>0.00774112744034211</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000526451144619354</v>
+        <v>-0.00030690471616236</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0125663182839966</v>
+        <v>0.0157891595968466</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00601993356968864</v>
+        <v>0.00804803215650447</v>
       </c>
     </row>
     <row r="3">
@@ -1295,19 +1293,19 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00896292636623798</v>
+        <v>0.0104550767881144</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000801957553790882</v>
+        <v>0.000940415647175426</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0171238951786851</v>
+        <v>0.0199697379290534</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0081609688124471</v>
+        <v>0.009514661140939</v>
       </c>
     </row>
     <row r="4">
@@ -1321,19 +1319,19 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0106837390156471</v>
+        <v>0.0108233055341885</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00601079543313686</v>
+        <v>0.0060895279985654</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0153566825981573</v>
+        <v>0.0155570830698117</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0046729435825102</v>
+        <v>0.00473377753562313</v>
       </c>
     </row>
     <row r="5">
@@ -1347,24 +1345,24 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0118634022886977</v>
+        <v>0.0118363051524901</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0108169089236754</v>
+        <v>0.0107675797253595</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01290989565372</v>
+        <v>0.0129050305796207</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00104649336502231</v>
+        <v>0.00106872542713058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1373,19 +1371,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0122554393367943</v>
+        <v>0.0131764823820944</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0121582777458147</v>
+        <v>0.00581614591060408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0366691564194033</v>
+        <v>0.0205368188535847</v>
       </c>
       <c r="H6" t="n">
-        <v>0.024413717082609</v>
+        <v>0.00736033647149033</v>
       </c>
     </row>
     <row r="7">
@@ -1393,51 +1391,51 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0131764823820944</v>
+        <v>0.0136577933805007</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00581614591060408</v>
+        <v>0.00764648118518832</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0205368188535847</v>
+        <v>0.0196691055758131</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00736033647149033</v>
+        <v>0.00601131219531239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0136577933805007</v>
+        <v>0.0138583849292627</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00764648118518832</v>
+        <v>-0.0137662503913368</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0196691055758131</v>
+        <v>0.0414830202498622</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00601131219531239</v>
+        <v>0.0276246353205995</v>
       </c>
     </row>
     <row r="9">
@@ -1451,19 +1449,19 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0148118821961018</v>
+        <v>0.015049919478501</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00435231677909782</v>
+        <v>0.0044233676882847</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0252714476131059</v>
+        <v>0.0256764712687173</v>
       </c>
       <c r="H9" t="n">
-        <v>0.010459565417004</v>
+        <v>0.0106265517902163</v>
       </c>
     </row>
     <row r="10">
@@ -1477,76 +1475,76 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0159382376590514</v>
+        <v>0.0155263988895586</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00868316532254692</v>
+        <v>0.00822905987681761</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0231933099955558</v>
+        <v>0.0228237379022997</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00725507233650444</v>
+        <v>0.00729733901274104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0170837381304325</v>
+        <v>0.0198370218164035</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.00912437683075171</v>
+        <v>0.0138547084418544</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0432918530916167</v>
+        <v>0.0258193351909527</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0262081149611842</v>
+        <v>0.00598231337454919</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0175760859623348</v>
+        <v>0.0212497832389912</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0123692714471743</v>
+        <v>0.00239820614701213</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0227829004774952</v>
+        <v>0.0401013603309703</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00520681451516047</v>
+        <v>0.0188515770919791</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1555,76 +1553,76 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0204775436482435</v>
+        <v>0.0301694739771905</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00231111842816541</v>
+        <v>-0.0148854184367424</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0386439688683216</v>
+        <v>0.0752243663911235</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0181664252200781</v>
+        <v>0.045054892413933</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0291540516857133</v>
+        <v>0.0304030586209006</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00149761089520375</v>
+        <v>0.0254840769295078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0568104924762228</v>
+        <v>0.0353220403122934</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0276564407905095</v>
+        <v>0.00491898169139281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0301694739771905</v>
+        <v>0.0326085300365754</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0148854184367424</v>
+        <v>0.00173377286357287</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0752243663911235</v>
+        <v>0.063483287209578</v>
       </c>
       <c r="H15" t="n">
-        <v>0.045054892413933</v>
+        <v>0.0308747571730025</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1633,24 +1631,24 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0304030586209006</v>
+        <v>0.0476154554999933</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0254840769295078</v>
+        <v>0.025167900250056</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0353220403122934</v>
+        <v>0.0700630107499306</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00491898169139281</v>
+        <v>0.0224475552499373</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1659,50 +1657,50 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0361974594359712</v>
+        <v>0.0664540863146276</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0199155355202157</v>
+        <v>0.0602292158218553</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0524793833517267</v>
+        <v>0.0726789568073999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0162819239157555</v>
+        <v>0.00622487049277228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0630406375362828</v>
+        <v>0.202912369459852</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0571857250773227</v>
+        <v>0.00843372386422428</v>
       </c>
       <c r="G18" t="n">
-        <v>0.068895549995243</v>
+        <v>0.397391015055479</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00585491245896015</v>
+        <v>0.194478645595627</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1710,21 +1708,13 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.186409894249011</v>
-      </c>
+      <c r="D19"/>
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.00630495745756735</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.366514831040454</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.180104936791443</v>
-      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1768,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000754305388245305</v>
+        <v>0.000858235987406405</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -1776,7 +1766,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1785,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0025462721951411</v>
+        <v>0.00339343295853663</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -1793,7 +1783,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1802,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003429888952902</v>
+        <v>0.0053320115957452</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
@@ -1819,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00459808934295257</v>
+        <v>0.00546264596522598</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -1836,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00558006426902104</v>
+        <v>0.00634677219761486</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -1853,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00887164318529109</v>
+        <v>0.00895689968770087</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
@@ -1870,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0104675441024568</v>
+        <v>0.0103985455239069</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
@@ -1904,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0131243107341458</v>
+        <v>0.0130032216055856</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -1929,16 +1919,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0204893443425969</v>
+        <v>0.0217075864272638</v>
       </c>
       <c r="E12" t="n">
         <v>14</v>
@@ -1946,7 +1936,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1955,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217075864272638</v>
+        <v>0.0246001439255487</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1963,16 +1953,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220880303129731</v>
+        <v>0.0335136814419757</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -1989,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0371269038583388</v>
+        <v>0.0369455472189744</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -1997,16 +1987,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0375841504054845</v>
+        <v>0.0423714327943436</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -2014,7 +2004,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -2023,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.042348311424903</v>
+        <v>0.0467694358031344</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -2031,16 +2021,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0423714327943436</v>
+        <v>0.0474123334656011</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -2057,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0471013107822504</v>
+        <v>0.0566463811512686</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -2074,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0576393884887252</v>
+        <v>0.0600279393534394</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -2091,7 +2081,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0654924807579395</v>
+        <v>0.068690116344035</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -2108,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0743316446299875</v>
+        <v>0.0813678141616544</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -2125,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.092772143080702</v>
+        <v>0.0952515590794586</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -2142,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.145953614462045</v>
+        <v>0.1500643595093</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -2214,24 +2204,24 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000754305388245305</v>
+        <v>0.000858235987406405</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.000726849822481369</v>
+        <v>-0.00082730148884122</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00223546059897198</v>
+        <v>0.00254377346365403</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00148115521072667</v>
+        <v>0.00168553747624763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -2240,24 +2230,24 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0025462721951411</v>
+        <v>0.00339343295853663</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00250337235124964</v>
+        <v>0.00246639889316238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00759591674153185</v>
+        <v>0.00432046702391087</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00504964454639075</v>
+        <v>0.000927034065374243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2266,19 +2256,19 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003429888952902</v>
+        <v>0.0053320115957452</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00252115040489875</v>
+        <v>-0.0053670493939656</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00433862750090525</v>
+        <v>0.016031072585456</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00090873854800325</v>
+        <v>0.0106990609897108</v>
       </c>
     </row>
     <row r="5">
@@ -2292,19 +2282,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00459808934295257</v>
+        <v>0.00546264596522598</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00457759333886589</v>
+        <v>-0.00547834670569274</v>
       </c>
       <c r="G5" t="n">
-        <v>0.013773772024771</v>
+        <v>0.0164036386361447</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00917568268181846</v>
+        <v>0.0109409926709187</v>
       </c>
     </row>
     <row r="6">
@@ -2318,19 +2308,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00558006426902104</v>
+        <v>0.00634677219761486</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00240537036226342</v>
+        <v>0.00273690435617677</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00875475817577866</v>
+        <v>0.00995664003905294</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00317469390675762</v>
+        <v>0.00360986784143808</v>
       </c>
     </row>
     <row r="7">
@@ -2344,19 +2334,19 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00887164318529109</v>
+        <v>0.00895689968770087</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00456423742476282</v>
+        <v>0.00451050239531111</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0131790489458194</v>
+        <v>0.0134032969800906</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00430740576052827</v>
+        <v>0.00444639729238976</v>
       </c>
     </row>
     <row r="8">
@@ -2370,19 +2360,19 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0104675441024568</v>
+        <v>0.0103985455239069</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00777616663384333</v>
+        <v>0.00761647077723137</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0131589215710703</v>
+        <v>0.0131806202705825</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00269137746861347</v>
+        <v>0.00278207474667557</v>
       </c>
     </row>
     <row r="9">
@@ -2422,19 +2412,19 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0131243107341458</v>
+        <v>0.0130032216055856</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0115263125618745</v>
+        <v>0.0113772200820272</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0147223089064172</v>
+        <v>0.014629223129144</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00159799817227133</v>
+        <v>0.00162600152355842</v>
       </c>
     </row>
     <row r="11">
@@ -2465,33 +2455,33 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0204893443425969</v>
+        <v>0.0217075864272638</v>
       </c>
       <c r="E12" t="n">
         <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00803208333536487</v>
+        <v>0.0165713180334279</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0490107720205587</v>
+        <v>0.0268438548210997</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0285214276779618</v>
+        <v>0.0051362683938359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -2500,45 +2490,45 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217075864272638</v>
+        <v>0.0246001439255487</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0165713180334279</v>
+        <v>0.0142105751025364</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0268438548210997</v>
+        <v>0.034989712748561</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0051362683938359</v>
+        <v>0.0103895688230123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220880303129731</v>
+        <v>0.0335136814419757</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0129002570814157</v>
+        <v>-0.0129685143788874</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0312758035445305</v>
+        <v>0.0799958772628388</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00918777323155736</v>
+        <v>0.0464821958208631</v>
       </c>
     </row>
     <row r="15">
@@ -2552,50 +2542,50 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0371269038583388</v>
+        <v>0.0369455472189744</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0314658125659123</v>
+        <v>0.0312656180341139</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0427879951507653</v>
+        <v>0.0426254764038349</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0056610912924265</v>
+        <v>0.00567992918486047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0375841504054845</v>
+        <v>0.0423714327943436</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00300042931007072</v>
+        <v>0.0334363297862033</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0721678715008983</v>
+        <v>0.0513065358024838</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0345837210954138</v>
+        <v>0.00893510300814027</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -2604,45 +2594,45 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.042348311424903</v>
+        <v>0.0467694358031344</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0191091242229672</v>
+        <v>0.00156836743044019</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0655874986268388</v>
+        <v>0.0919705041758287</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0232391872019358</v>
+        <v>0.0452010683726942</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0423714327943436</v>
+        <v>0.0474123334656011</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0334363297862033</v>
+        <v>0.0184357727778643</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0513065358024838</v>
+        <v>0.076388894153338</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00893510300814027</v>
+        <v>0.0289765606877369</v>
       </c>
     </row>
     <row r="19">
@@ -2656,19 +2646,19 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0471013107822504</v>
+        <v>0.0566463811512686</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00905642391844527</v>
+        <v>0.0100179094664816</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0851461976460556</v>
+        <v>0.103274852836056</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0380448868638052</v>
+        <v>0.046628471684787</v>
       </c>
     </row>
     <row r="20">
@@ -2682,19 +2672,19 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0576393884887252</v>
+        <v>0.0600279393534394</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0416721245961834</v>
+        <v>0.0430468837934055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0736066523812671</v>
+        <v>0.0770089949134732</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0159672638925419</v>
+        <v>0.0169810555600338</v>
       </c>
     </row>
     <row r="21">
@@ -2708,19 +2698,19 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0654924807579395</v>
+        <v>0.068690116344035</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.057263187733616</v>
+        <v>0.0600044660781235</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0737217737822631</v>
+        <v>0.0773757666099464</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00822929302432353</v>
+        <v>0.00868565026591146</v>
       </c>
     </row>
     <row r="22">
@@ -2734,19 +2724,19 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0743316446299875</v>
+        <v>0.0813678141616544</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0642317382625144</v>
+        <v>-0.0697736488383392</v>
       </c>
       <c r="G22" t="n">
-        <v>0.212895027522489</v>
+        <v>0.232509277161648</v>
       </c>
       <c r="H22" t="n">
-        <v>0.138563382892502</v>
+        <v>0.151141462999994</v>
       </c>
     </row>
     <row r="23">
@@ -2760,19 +2750,19 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.092772143080702</v>
+        <v>0.0952515590794586</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0550361239624801</v>
+        <v>0.0557912956306022</v>
       </c>
       <c r="G23" t="n">
-        <v>0.130508162198924</v>
+        <v>0.134711822528315</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0377360191182218</v>
+        <v>0.0394602634488564</v>
       </c>
     </row>
     <row r="24">
@@ -2786,19 +2776,19 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.145953614462045</v>
+        <v>0.1500643595093</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123021619392239</v>
+        <v>0.126381594272394</v>
       </c>
       <c r="G24" t="n">
-        <v>0.16888560953185</v>
+        <v>0.173747124746206</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0229319950698058</v>
+        <v>0.0236827652369062</v>
       </c>
     </row>
     <row r="25">
@@ -2864,19 +2854,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0119005113541893</v>
+        <v>0.0118729177510304</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0108885150189846</v>
+        <v>0.0108401953447802</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0129125076893941</v>
+        <v>0.0129056401572806</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00101199633520477</v>
+        <v>0.00103272240625024</v>
       </c>
     </row>
     <row r="3">
@@ -2887,19 +2877,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0158433528225717</v>
+        <v>0.0175983175695391</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0116886303313403</v>
+        <v>0.0129203025318456</v>
       </c>
       <c r="F3" t="n">
-        <v>0.019998075313803</v>
+        <v>0.0222763326072326</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00415472249123134</v>
+        <v>0.00467801503769349</v>
       </c>
     </row>
     <row r="4">
@@ -2933,19 +2923,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0274986410959012</v>
+        <v>0.0369647973792173</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00528559892936243</v>
+        <v>0.00607954186531654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0497116832624399</v>
+        <v>0.067850052893118</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0222130421665387</v>
+        <v>0.0308852555139007</v>
       </c>
     </row>
     <row r="6">
@@ -2956,19 +2946,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0343441757891373</v>
+        <v>0.0427822140966773</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0194142057087344</v>
+        <v>0.0227941161782667</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0492741458695401</v>
+        <v>0.0627703120150879</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0149299700804029</v>
+        <v>0.0199880979184106</v>
       </c>
     </row>
     <row r="7">
@@ -2979,19 +2969,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0611315871882571</v>
+        <v>0.0644985069644032</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0555010617240355</v>
+        <v>0.0585078631573173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0667621126524787</v>
+        <v>0.070489150771489</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00563052546422162</v>
+        <v>0.00599064380708583</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00665566168902908</v>
+        <v>0.00668176591108138</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
@@ -3572,7 +3562,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -3581,7 +3571,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0101829719430611</v>
+        <v>0.0130000330628856</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -3589,7 +3579,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -3598,7 +3588,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0119360774380837</v>
+        <v>0.0143029875343744</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -3632,7 +3622,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0178443416746452</v>
+        <v>0.0177937499771373</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -3649,7 +3639,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217285296090829</v>
+        <v>0.02522146107126</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -3666,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0225256011212016</v>
+        <v>0.0296949046255971</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -3700,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0395190940980026</v>
+        <v>0.0430878002582942</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -3708,7 +3698,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -3717,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0427576883013861</v>
+        <v>0.0558724406787483</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -3725,7 +3715,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3734,7 +3724,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0471719849288408</v>
+        <v>0.0568994142899954</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -3751,7 +3741,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0761340963497683</v>
+        <v>0.0784142747741524</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
